--- a/Planilha guilherme.xlsx
+++ b/Planilha guilherme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\PUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo.pedreira\Documents\GitHub\Refilx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39433D45-4311-4AEA-829B-39D30BA50223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6C4D32-BD5E-4DF5-A6AF-8A28CE0767D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{13071CC4-C176-4E2D-9332-482018B767B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{13071CC4-C176-4E2D-9332-482018B767B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Tempo</t>
   </si>
@@ -181,10 +181,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -204,10 +204,932 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speed-up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$14:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3036 x 4048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500 x 3336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500 x 1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000 x 1332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800 x 1066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600 x 800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400 x 533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200 x 266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180 x 120</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$14:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.2200956937799035E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7484276729559749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7162162162162162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.13953488372093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76923076923076916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17391304347826098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16ED-48EA-8E21-2C2F8D184AE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="83412607"/>
+        <c:axId val="83413087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83412607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83413087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83413087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83412607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>908326</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167861</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A404FEE7-0668-AFDC-6788-D74BEA374EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +1167,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +1273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +1415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,16 +1425,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D223D4C-E97E-4F21-A9CB-2C59286E221F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" activeCellId="1" sqref="B13:B22 D13:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +1450,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>313</v>
       </c>
@@ -538,7 +1461,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>237</v>
       </c>
@@ -549,7 +1472,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>212</v>
       </c>
@@ -560,7 +1483,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>226</v>
       </c>
@@ -571,7 +1494,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>209</v>
       </c>
@@ -579,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>213</v>
       </c>
@@ -587,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>219</v>
       </c>
@@ -595,7 +1518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>208</v>
       </c>
@@ -603,7 +1526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>212</v>
       </c>
@@ -611,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>205</v>
       </c>
@@ -619,90 +1542,156 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>209</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="C14">
+        <v>222</v>
+      </c>
+      <c r="D14">
+        <f>(C14/A14)-1</f>
+        <v>6.2200956937799035E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>159</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="C15">
+        <v>437</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D22" si="0">(C15/A15)-1</f>
+        <v>1.7484276729559749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>74</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="C16">
+        <v>201</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.7162162162162162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="C17">
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.13953488372093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>36</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="C18">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="C19">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.76923076923076916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>23</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.17391304347826098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>12</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -711,5 +1700,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>